--- a/backtest/bt_report/rs_smae_style_28/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_smae_style_28/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>88396998.19424775</v>
+        <v>93910310.86617391</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>759.3692477494478</v>
+        <v>261.0151738971472</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>7.839699819424775</v>
+        <v>8.39103108661739</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.3159855699945677</v>
+        <v>0.3260560248022895</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>8.839699819424775</v>
+        <v>9.39103108661739</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>179.9194049175635</v>
+        <v>200.0908886912274</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.7883822864266459</v>
+        <v>0.7818364092311082</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2137884854624535</v>
+        <v>0.2162512487902472</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.190762239508073</v>
+        <v>1.214918820990009</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1488248288979048</v>
+        <v>0.1502216072020808</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.710542908837802</v>
+        <v>1.748934238630785</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2999547134515244</v>
+        <v>0.2190389634929885</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.0212945134374833</v>
+        <v>0.02152041793210421</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>1.737986374031946</v>
+        <v>1.925962133639176</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.1353149103809963</v>
+        <v>0.1448533423376461</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2518326059645092</v>
+        <v>0.2615378645507497</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4086559187650049</v>
+        <v>0.4160484223971991</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.625882373847817</v>
+        <v>1.667789267308906</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.6282959558216304</v>
+        <v>0.6626907770001347</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.3241372088677567</v>
+        <v>0.3426180980296998</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2525105588505749</v>
+        <v>0.2517129032197107</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2414124756708751</v>
+        <v>0.2510484074714207</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4797139397549122</v>
+        <v>0.4829370687474669</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.130889894900023</v>
+        <v>1.159243290005724</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.719745369518857</v>
+        <v>1.759709385049151</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.564891693249324</v>
+        <v>1.612681466547669</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03181463249809204</v>
+        <v>0.03181495597636057</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2965547360060907</v>
+        <v>0.2152457940756438</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.747684999999999</v>
+        <v>0.7167139999999992</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.5881759252501377</v>
+        <v>0.5610748849709606</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.517880394373854</v>
+        <v>3.37494540567044</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.629159508337056</v>
+        <v>5.339290667987375</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.5</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.313085023903049</v>
+        <v>1.383673110372492</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.09585609855431496</v>
+        <v>0.1308614859067452</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.586414904417805</v>
+        <v>2.661031238505688</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.519259310197377</v>
+        <v>3.769732922003349</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="4">
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.100045416945369</v>
+        <v>-0.09578833284254892</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1393360517455002</v>
+        <v>0.1435778667405391</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.6751399524788463</v>
+        <v>-0.626615733629464</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.3433925076396144</v>
+        <v>-0.3181392195140618</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.54</v>
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.172320707532986</v>
+        <v>0.1680306347566334</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.28390191483048</v>
+        <v>0.2792625855028019</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.606976760755264</v>
+        <v>1.56785944166415</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>1.940760656022713</v>
+        <v>1.895730372644066</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.1992207786726793</v>
+        <v>-0.1278695223310984</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.06056503376957573</v>
+        <v>0.1588008675880189</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-1.445566177065267</v>
+        <v>-0.7871322957407803</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.984761573485043</v>
+        <v>-0.3244248077265858</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.2122374167177838</v>
+        <v>0.1943011415386413</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1847189759040708</v>
+        <v>-0.1959103796828023</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.159472236148736</v>
+        <v>1.056891227956124</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>-0.0418530158985032</v>
+        <v>-0.2355825138179601</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="8">
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.5773307579399983</v>
+        <v>0.5783958185283229</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.07525347408240739</v>
+        <v>-0.07441618262464285</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>2.050419247313795</v>
+        <v>2.050425626539565</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>1.171007769403714</v>
+        <v>1.170444413140459</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3269230769230769</v>
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.1642478292939928</v>
+        <v>0.1504322710598789</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>0.008993056719772576</v>
+        <v>-0.002614352108871345</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.8334766713447003</v>
+        <v>0.7741914235541629</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.6861533617638601</v>
+        <v>0.5795549329771006</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4038461538461539</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.1626447962777268</v>
+        <v>0.1488729374703717</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.3330301303724079</v>
+        <v>0.3170975956231589</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>2.536327172050993</v>
+        <v>2.322344414241513</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>3.695535043134721</v>
+        <v>3.348703054213811</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1436,28 +1436,28 @@
         <v>-0.02516099999999999</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.002817901212405216</v>
+        <v>-0.01606726854383134</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.0656822008498481</v>
+        <v>0.06567929139177764</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05218680048685176</v>
+        <v>0.06432172995986973</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.01850088125499494</v>
+        <v>-0.01850408393248815</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.08170862286268799</v>
+        <v>0.08171730235598562</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.01796969048619501</v>
+        <v>-0.02806896336775633</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1425530239395212</v>
+        <v>0.1425522457592767</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3384007210899667</v>
+        <v>0.3384014469929668</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.05527998466542938</v>
+        <v>-0.05528002917201147</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1472424296200106</v>
+        <v>0.1472443819081592</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.2111529996341421</v>
+        <v>0.2111546868592515</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.2238391416751264</v>
+        <v>0.2238403013984946</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2396652446056535</v>
+        <v>0.2396666615903742</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.06446633172066185</v>
+        <v>-0.06446636768152592</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01721156864081941</v>
+        <v>0.05320627357554075</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.01052796518111987</v>
+        <v>-0.01328445160189085</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1899464659763741</v>
+        <v>0.1899396616769822</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07840170343833885</v>
+        <v>0.07839896603745533</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.0387789332119719</v>
+        <v>-0.04062331930871965</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.09088905402142822</v>
+        <v>-0.09088740825276109</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.005533967453044575</v>
+        <v>-0.005554322038317405</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.02318250588086612</v>
+        <v>0.04823837147854726</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.02353767882555702</v>
+        <v>-0.02480401427451173</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.05913795018051893</v>
+        <v>0.05507048018759431</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.04389338891055405</v>
+        <v>-0.04389283705710867</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.0170074550039836</v>
+        <v>-0.02490784822257586</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.0195437417335399</v>
+        <v>-0.01954444241630304</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.003985108570620066</v>
+        <v>0.0008348920727205833</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.07239454396770162</v>
+        <v>0.07239639879536131</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.05476316115610691</v>
+        <v>-0.05476453358116495</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.01508614647291751</v>
+        <v>0.01160938144828649</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.01146631551498545</v>
+        <v>0.01146573117713379</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.03617987779412613</v>
+        <v>-0.03617923372100906</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.002710411000302226</v>
+        <v>0.002710324170117184</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04457180847380138</v>
+        <v>0.03965071469567372</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04732988725094489</v>
+        <v>0.04732966384137871</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.01926202091192253</v>
+        <v>0.0192614543253935</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.01762682845273866</v>
+        <v>-0.01320689713765166</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.009518154642765175</v>
+        <v>0.009518041230038188</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05432203045929418</v>
+        <v>0.05432125988222736</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.01445399554282067</v>
+        <v>0.01445365557087652</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.001112236332772465</v>
+        <v>-0.001112406440447189</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.0681268840736533</v>
+        <v>0.07066638006054382</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.06084875943620927</v>
+        <v>-0.06085253191310946</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.02355115992284929</v>
+        <v>0.05964463033565326</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.0348063059740602</v>
+        <v>-0.02194243135742424</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>-0.0209511993559085</v>
+        <v>-0.002796511232894039</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.01818919078278991</v>
+        <v>-0.01044836037157748</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.03071302236677176</v>
+        <v>-0.01883601598000151</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.06265175395963263</v>
+        <v>-0.06264952098247201</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.01373033666469081</v>
+        <v>-0.01087952423580463</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.04266455059241281</v>
+        <v>-0.03945797779533378</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.04516874080981226</v>
+        <v>-0.02894107443771021</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.02626245325568721</v>
+        <v>-0.0004791809532600499</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.03088150684630708</v>
+        <v>0.02964174730467461</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1258577557020868</v>
+        <v>0.1258520815978201</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.03017630447297615</v>
+        <v>0.03017626604897194</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.005887517126621389</v>
+        <v>-0.005887525404268845</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.0475818158483543</v>
+        <v>-0.04758497252671734</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.002447525498182501</v>
+        <v>0.02446558739982496</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>0.01977006869004105</v>
+        <v>0.01976959030922476</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.03716646894518416</v>
+        <v>-0.05424197123146268</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01206059423374062</v>
+        <v>0.0120592971647826</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.02651074952630483</v>
+        <v>0.02372514424614613</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.005776973443409883</v>
+        <v>-0.004799499031229115</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.04630843615616809</v>
+        <v>0.03679688277325965</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.07208790667331044</v>
+        <v>0.07208591307971757</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>0.07460706680472562</v>
+        <v>0.07460537791284949</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.01994182594577898</v>
+        <v>-0.01994148230933146</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01814831096293767</v>
+        <v>0.02899223936860396</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.03138053380335049</v>
+        <v>-0.03137953952379957</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1684613158774946</v>
+        <v>0.1684603095926585</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1464998670830895</v>
+        <v>0.146499333204716</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.0169643974661241</v>
+        <v>-0.02682766181294161</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02532291280452459</v>
+        <v>-0.02532420073486519</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01791100265653611</v>
+        <v>-0.01774523785112159</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06438725201720885</v>
+        <v>0.0643878924369643</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.05574182813913042</v>
+        <v>0.05574199783242872</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.05481726531851661</v>
+        <v>0.05481808979933711</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.04586495505092414</v>
+        <v>-0.04586537182439865</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.1032361545178311</v>
+        <v>0.08194575564210416</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.07041109247012001</v>
+        <v>0.0704112159147865</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.05080138770374476</v>
+        <v>0.05080153078239991</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.07041663953906241</v>
+        <v>-0.07041685123995867</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>-0.002780683941147832</v>
+        <v>-0.001118211770965161</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.0001599099319543607</v>
+        <v>0.005738890505919247</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01172106347984481</v>
+        <v>0.01172088696608764</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.02591495704703251</v>
+        <v>0.0259159070847208</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.0309706930645115</v>
+        <v>-0.03097064813012418</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.02216347130169061</v>
+        <v>-0.022162983805606</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.007791423462103153</v>
+        <v>-0.01766066196736582</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.03600193529347084</v>
+        <v>0.03401385236329868</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.1686062175806464</v>
+        <v>0.1686073100557948</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.01019633153322541</v>
+        <v>-0.01019638751858709</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1892,28 +1892,28 @@
         <v>0.03905669267335465</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.02809750515465459</v>
+        <v>-0.0460854044043203</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-4.161722009343727e-06</v>
+        <v>-7.144059467889541e-06</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.0964240552535125</v>
+        <v>0.1092921967890863</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.07569260943697165</v>
+        <v>-0.07569548941279358</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-9.166187341591581e-06</v>
+        <v>-8.048132806859343e-07</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.00107114407348996</v>
+        <v>-0.01120890615834591</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.09706989720911818</v>
+        <v>0.09706919214068854</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.4160500953341522</v>
+        <v>0.4160508700995165</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1790475494071773</v>
+        <v>-0.1790475600485324</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-6.093245516258783e-06</v>
+        <v>-4.333540038481409e-06</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-6.667426389661557e-06</v>
+        <v>-5.224441705586891e-06</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-6.114957459946169e-06</v>
+        <v>-5.121247712791543e-06</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-5.270559315762036e-06</v>
+        <v>-4.02637389951277e-06</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1348009533238541</v>
+        <v>0.1348010201596419</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2425189621709192</v>
+        <v>0.2884404327006536</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.07926609979821331</v>
+        <v>-0.08195292012248234</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-3.340768620962997e-06</v>
+        <v>-9.657943847329875e-06</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-1.319542644262484e-06</v>
+        <v>-4.373100313648237e-06</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.05499781873146536</v>
+        <v>-0.056812052047163</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.1962507276295327</v>
+        <v>0.1962527545379753</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.05114578542913484</v>
+        <v>0.03967814784167434</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1530841953048641</v>
+        <v>-0.1333351720367516</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.01660877659035331</v>
+        <v>0.01529852575422597</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>-0.01869687499886785</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.02437681429039307</v>
+        <v>0.02046036980917987</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.003548138424142033</v>
+        <v>0.00354867944014492</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.05034613256835618</v>
+        <v>-0.05795419907886101</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.001674662576336972</v>
+        <v>-0.001675379157772383</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.009748809643911338</v>
+        <v>-0.004987353015809992</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.05998083790580355</v>
+        <v>0.05998268727585732</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.04831216482005329</v>
+        <v>0.04831066785441807</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.05266711027062532</v>
+        <v>0.04906664478693878</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.01047568439311297</v>
+        <v>-0.01047627647618443</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.026570594417336</v>
+        <v>-0.02656997194726629</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.0321790048723174</v>
+        <v>0.03217889688143538</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.09384462782714142</v>
+        <v>0.08871637197909576</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01424251187388381</v>
+        <v>0.01424229075620898</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.06174992892245346</v>
+        <v>0.06174933502899793</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.07910413774709557</v>
+        <v>-0.07494363831037443</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-1.982725338356417e-07</v>
+        <v>-3.039342102439946e-07</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05087673226444611</v>
+        <v>0.0508759691963836</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.06927569700547176</v>
+        <v>0.06927529491788365</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.00642923296985165</v>
+        <v>0.006429067150634404</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.07494120542291194</v>
+        <v>0.07753537004291577</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07730895286467909</v>
+        <v>-0.07731262813744522</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.05744964477346337</v>
+        <v>-0.02299254502735126</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.01210269226781735</v>
+        <v>0.02578409756723654</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.01179756430940504</v>
+        <v>0.03087745427148669</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.05624972495169445</v>
+        <v>0.06479919915136212</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.00642933260322498</v>
+        <v>0.005900053742934341</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.01320422936705445</v>
+        <v>0.01320659826457216</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.0008364278472936526</v>
+        <v>0.003874579848598403</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.04835556616672432</v>
+        <v>0.05184743676589343</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.08754171525149101</v>
+        <v>-0.07176882588939004</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.0882443551501928</v>
+        <v>0.06060312519003497</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.04670838261038512</v>
+        <v>0.04545346700483877</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.1022094345102155</v>
+        <v>-0.1022141893495553</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.07188767013659436</v>
+        <v>-0.07188787930972185</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.03499441991139673</v>
+        <v>0.03499448651712167</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.03323272330065596</v>
+        <v>0.03322959667301562</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.02466015758773943</v>
+        <v>0.002387821336610196</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01970100513124651</v>
+        <v>-0.01970140054116554</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.06377796170329697</v>
+        <v>-0.08023675010626041</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.001679464187130275</v>
+        <v>0.001678127358500481</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.002259445612164068</v>
+        <v>-0.004964080570456053</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.009298065071187134</v>
+        <v>-0.001207682417450506</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.03192128126111959</v>
+        <v>-0.04064502035750195</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-6.168626431879431e-07</v>
+        <v>-2.596641598295868e-06</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-9.288832562015514e-07</v>
+        <v>-2.94784640508805e-06</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.07537037953732617</v>
+        <v>0.075370592868514</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.08335764862677641</v>
+        <v>-0.07353568529922516</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.04086671750730009</v>
+        <v>-0.04086573023188433</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-3.538828530658122e-06</v>
+        <v>-4.42684411461336e-06</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-3.020528786645826e-06</v>
+        <v>-3.55182244760055e-06</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.004048952653042948</v>
+        <v>-0.005857334278269399</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.0278847257966135</v>
+        <v>0.02788346611837733</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.05236319392378908</v>
+        <v>-0.05220506907925537</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.07069640489946893</v>
+        <v>0.07069706358372807</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.06592507595187247</v>
+        <v>-0.06592493465078086</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-2.420988821971726e-06</v>
+        <v>-1.534620775567319e-06</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.02403160596625553</v>
+        <v>0.02403122988132766</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>0.04291606568309714</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.01727197214878384</v>
+        <v>-0.03598380633429477</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-1.739214261498034e-06</v>
+        <v>-1.607300451844651e-06</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-1.164273668474713e-06</v>
+        <v>-1.022189584309885e-06</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.06334741320344339</v>
+        <v>-0.06334761008125833</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.06270371355717486</v>
+        <v>0.06448330137908753</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.01399935908539107</v>
+        <v>-0.008086270508222082</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02188459878204196</v>
+        <v>-0.0218847761019717</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.01665406087333532</v>
+        <v>-0.01665313498695142</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.01842738955621037</v>
+        <v>0.01842740733056236</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1111205328810871</v>
+        <v>0.1111210772021507</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2217,16 +2217,16 @@
         <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1222023369544016</v>
+        <v>0.1109167565108489</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.0052139233215025</v>
+        <v>-0.007120073627458923</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-1.457408933536186e-06</v>
+        <v>-4.865122573693981e-07</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>9.940106826533679e-08</v>
+        <v>4.34157065853924e-08</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/rs_smae_style_28/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_smae_style_28/single_run/summary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="51600" yWindow="8320" windowWidth="28400" windowHeight="25040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="概览" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="概览" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>STOCK:10000000.0</t>
+          <t>STOCK:100000000.0</t>
         </is>
       </c>
       <c r="C5" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>93910310.86617391</v>
+        <v>939180152.5055319</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>261.0151738971472</v>
+        <v>1759.591531872749</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>8.39103108661739</v>
+        <v>8.391801525055319</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.3260560248022895</v>
+        <v>0.326069731773875</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>9.39103108661739</v>
+        <v>9.391801525055319</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B13" s="7" t="n">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="C13" s="13" t="n"/>
       <c r="D13" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>200.0908886912274</v>
+        <v>200.09202611668</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.7818364092311082</v>
+        <v>0.7818361929776928</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2162512487902472</v>
+        <v>0.2162589315649581</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.214918820990009</v>
+        <v>1.214931198872018</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1502216072020808</v>
+        <v>0.1502267571381758</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.748934238630785</v>
+        <v>1.748954234240263</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2190389634929885</v>
+        <v>0.2190451178814692</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02152041793210421</v>
+        <v>0.02152118989087799</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>1.925962133639176</v>
+        <v>1.926228372278894</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.1448533423376461</v>
+        <v>0.144866467525181</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2615378645507497</v>
+        <v>0.2615510116966618</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4160484223971991</v>
+        <v>0.4160597546976837</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.667789267308906</v>
+        <v>1.667795490665334</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.6626907770001347</v>
+        <v>0.6627328301377355</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.3426180980296998</v>
+        <v>0.3426022685653181</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2517129032197107</v>
+        <v>0.251715054098183</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2510484074714207</v>
+        <v>0.2510611540222899</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4829370687474669</v>
+        <v>0.4829494466795696</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.159243290005724</v>
+        <v>1.159253484988072</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.759709385049151</v>
+        <v>1.759737716812444</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.612681466547669</v>
+        <v>1.612679020734864</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03181495597636057</v>
+        <v>0.03181541429700172</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2152457940756438</v>
+        <v>0.2152518262369373</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.7167139999999992</v>
+        <v>0.7168069999999995</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.5610748849709606</v>
+        <v>0.5611609334001091</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.37494540567044</v>
+        <v>3.374975937822446</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.339290667987375</v>
+        <v>5.339516108265973</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.5526315789473685</v>
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.383673110372492</v>
+        <v>1.383711156816112</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.1308614859067452</v>
+        <v>0.1308828286930862</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.661031238505688</v>
+        <v>2.660997218549369</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.769732922003349</v>
+        <v>3.769686112326339</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.3076923076923077</v>
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.09578833284254892</v>
+        <v>-0.09579236687182838</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1435778667405391</v>
+        <v>0.1435737569759322</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.626615733629464</v>
+        <v>-0.6266178027444639</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.3181392195140618</v>
+        <v>-0.3181425916909801</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.54</v>
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1680306347566334</v>
+        <v>0.1680352744629301</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.2792625855028019</v>
+        <v>0.2792678864110933</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.56785944166415</v>
+        <v>1.56785548677845</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>1.895730372644066</v>
+        <v>1.895730403393345</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.5686274509803921</v>
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.1278695223310984</v>
+        <v>-0.1278754247891785</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.1588008675880189</v>
+        <v>0.1587934182471676</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.7871322957407803</v>
+        <v>-0.7871616048000952</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.3244248077265858</v>
+        <v>-0.3244542920284859</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5490196078431373</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.1943011415386413</v>
+        <v>0.1943114747835746</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1959103796828023</v>
+        <v>-0.1959026646912816</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.056891227956124</v>
+        <v>1.05691357733408</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>-0.2355825138179601</v>
+        <v>-0.2355446814311593</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.5783958185283229</v>
+        <v>0.5784133126161306</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.07441618262464285</v>
+        <v>-0.07440432748915952</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>2.050425626539565</v>
+        <v>2.050421667279229</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>1.170444413140459</v>
+        <v>1.170454277825258</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.4038461538461539</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.1504322710598789</v>
+        <v>0.150432791230776</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.002614352108871345</v>
+        <v>-0.002612842367736312</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.7741914235541629</v>
+        <v>0.7741802220616721</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.5795549329771006</v>
+        <v>0.5795317950002394</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="10">
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.1488729374703717</v>
+        <v>0.1488718261624378</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.3170975956231589</v>
+        <v>0.3170963455558058</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>2.322344414241513</v>
+        <v>2.32232285570497</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>3.348703054213811</v>
+        <v>3.348671351758238</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.02516099999999999</v>
+        <v>-0.02516400000000019</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01606726854383134</v>
+        <v>-0.01606834380347033</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.06567929139177764</v>
+        <v>0.06568477812112916</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.06432172995986973</v>
+        <v>0.0643206887274681</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.01850408393248815</v>
+        <v>-0.01850408393248848</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.08171730235598562</v>
+        <v>0.08171730235598607</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.02806896336775633</v>
+        <v>-0.02807156066241423</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1425522457592767</v>
+        <v>0.1425766774984325</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3384014469929668</v>
+        <v>0.3384489086945806</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.05528002917201147</v>
+        <v>-0.05528577178448124</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1472443819081592</v>
+        <v>0.1472477822197775</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.2111546868592515</v>
+        <v>0.211158954206778</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.2238403013984946</v>
+        <v>0.2238449462153744</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2396666615903742</v>
+        <v>0.2396697121438509</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.06446636768152592</v>
+        <v>-0.0644671254804251</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.05320627357554075</v>
+        <v>0.05320745668457083</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.01328445160189085</v>
+        <v>-0.013285123457908</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1899396616769822</v>
+        <v>0.1899495355920735</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07839896603745533</v>
+        <v>0.07840267614467944</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04062331930871965</v>
+        <v>-0.04062530915453755</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.09088740825276109</v>
+        <v>-0.09089203034328253</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.005554322038317405</v>
+        <v>-0.005554498323839696</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.04823837147854726</v>
+        <v>0.04824172922281389</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.02480401427451173</v>
+        <v>-0.02480516215536721</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.05507048018759431</v>
+        <v>0.05506996913029427</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.04389283705710867</v>
+        <v>-0.0438934305958375</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.02490784822257586</v>
+        <v>-0.02490856854233625</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.01954444241630304</v>
+        <v>-0.01954424625207307</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.0008348920727205833</v>
+        <v>0.000834563427916768</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.07239639879536131</v>
+        <v>0.07239991672282398</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.05476453358116495</v>
+        <v>-0.05476692910127412</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.01160938144828649</v>
+        <v>0.01160997028932909</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.01146573117713379</v>
+        <v>0.01146630727042752</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.03617923372100906</v>
+        <v>-0.03618051379245357</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.002710324170117184</v>
+        <v>0.002710694721023144</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.03965071469567372</v>
+        <v>0.03965110937239102</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04732966384137871</v>
+        <v>0.04733020874132188</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.0192614543253935</v>
+        <v>0.01926192528897896</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.01320689713765166</v>
+        <v>-0.01320724052764899</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.009518041230038188</v>
+        <v>0.009518402852725538</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05432125988222736</v>
+        <v>0.05432304570540514</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.01445365557087652</v>
+        <v>0.01445430045448126</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.001112406440447189</v>
+        <v>-0.001112329057118222</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.07066638006054382</v>
+        <v>0.07066678019057138</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.06085253191310946</v>
+        <v>-0.06085280933257509</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.05964463033565326</v>
+        <v>0.0596443835963163</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02194243135742424</v>
+        <v>-0.02194199237902994</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>-0.002796511232894039</v>
+        <v>-0.002796759692913486</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.01044836037157748</v>
+        <v>-0.01044919074598849</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01883601598000151</v>
+        <v>-0.01883561913517284</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.06264952098247201</v>
+        <v>-0.06265389619651396</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.01087952423580463</v>
+        <v>-0.01087906622530654</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.03945797779533378</v>
+        <v>-0.03945986307370131</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.02894107443771021</v>
+        <v>-0.02894156609769216</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.0004791809532600499</v>
+        <v>-0.0004788858029717291</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.02964174730467461</v>
+        <v>0.02964333239243455</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1258520815978201</v>
+        <v>0.1258584036275496</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.03017626604897194</v>
+        <v>0.03017667021308457</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.005887525404268845</v>
+        <v>-0.005887555095168695</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.04758497252671734</v>
+        <v>-0.04758497492528513</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.02446558739982496</v>
+        <v>0.02446597695680186</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>0.01976959030922476</v>
+        <v>0.01977002343829826</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.05424197123146268</v>
+        <v>-0.05424349959047126</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.0120592971647826</v>
+        <v>0.01206012036611348</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.02372514424614613</v>
+        <v>0.02372488203139445</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.004799499031229115</v>
+        <v>-0.00479939161866727</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.03679688277325965</v>
+        <v>0.03679821322015298</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.07208591307971757</v>
+        <v>0.07208830947856337</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>0.07460537791284949</v>
+        <v>0.07460795548841581</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.01994148230933146</v>
+        <v>-0.0199420844693714</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.02899223936860396</v>
+        <v>0.02899260666102865</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.03137953952379957</v>
+        <v>-0.03138155508663609</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1684603095926585</v>
+        <v>0.1684654407014481</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.146499333204716</v>
+        <v>0.1465029094629715</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02682766181294161</v>
+        <v>-0.02682901602041099</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02532420073486519</v>
+        <v>-0.02532459873965198</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01774523785112159</v>
+        <v>-0.01774506922624264</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.0643878924369643</v>
+        <v>0.06439019314322136</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.05574199783242872</v>
+        <v>0.05574278321681403</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.05481808979933711</v>
+        <v>0.05481947200975701</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.04586537182439865</v>
+        <v>-0.04586779340367919</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.08194575564210416</v>
+        <v>0.08194691728122683</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.0704112159147865</v>
+        <v>0.07041277680906455</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.05080153078239991</v>
+        <v>0.05080245960355123</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.07041685123995867</v>
+        <v>-0.07041811885523597</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>-0.001118211770965161</v>
+        <v>-0.001118365683082656</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>0.005738890505919247</v>
+        <v>0.005739031290521668</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01172088696608764</v>
+        <v>0.01172150869593258</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.0259159070847208</v>
+        <v>0.02591555345466845</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.03097064813012418</v>
+        <v>-0.03097125679225432</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.022162983805606</v>
+        <v>-0.02216371181498666</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.01766066196736582</v>
+        <v>-0.01766108471506012</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.03401385236329868</v>
+        <v>0.03401386880313928</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.1686073100557948</v>
+        <v>0.1686075411205763</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.01019638751858709</v>
+        <v>-0.01019639352731505</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.03905669267335465</v>
+        <v>0.03905356378214742</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.0460854044043203</v>
+        <v>-0.04608640596643732</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-7.144059467889541e-06</v>
+        <v>-1.58795698801395e-06</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1092921967890863</v>
+        <v>0.1092912413762805</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.07569548941279358</v>
+        <v>-0.07569550578311446</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-8.048132806859343e-07</v>
+        <v>-8.148963070997439e-07</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.01120890615834591</v>
+        <v>-0.01121154094352272</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.09706919214068854</v>
+        <v>0.0970926891899393</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.4160508700995165</v>
+        <v>0.4161015101182068</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1790475600485324</v>
+        <v>-0.1790524833782375</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-4.333540038481409e-06</v>
+        <v>-1.253506061837939e-06</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-5.224441705586891e-06</v>
+        <v>-1.459855040630842e-06</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-5.121247712791543e-06</v>
+        <v>-1.070260722824123e-06</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-4.02637389951277e-06</v>
+        <v>-1.340633265956015e-06</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1348010201596419</v>
+        <v>0.1348003736502654</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2884404327006536</v>
+        <v>0.2884419911943652</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.08195292012248234</v>
+        <v>-0.08195356332796333</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-9.657943847329875e-06</v>
+        <v>-5.45410182128947e-07</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-4.373100313648237e-06</v>
+        <v>-2.359826782871721e-07</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.056812052047163</v>
+        <v>-0.05681384446958226</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.1962527545379753</v>
+        <v>0.1962470755689463</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.03967814784167434</v>
+        <v>0.03967796588316852</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1333351720367516</v>
+        <v>-0.1333322965274735</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.01529852575422597</v>
+        <v>0.01529745413106576</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>-0.01869687499886785</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.02046036980917987</v>
+        <v>0.02046001585670232</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.00354867944014492</v>
+        <v>0.003548119421279416</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.05795419907886101</v>
+        <v>-0.05795488892081924</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.001675379157772383</v>
+        <v>-0.001675178010364653</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.004987353015809992</v>
+        <v>-0.004987673930761161</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.05998268727585732</v>
+        <v>0.05998618881534856</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.04831066785441807</v>
+        <v>0.04830806903892282</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.04906664478693878</v>
+        <v>0.04906726662806737</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.01047627647618443</v>
+        <v>-0.01047569205622267</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.02656997194726629</v>
+        <v>-0.02657123175086529</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03217889688143538</v>
+        <v>0.03217930950354098</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.08871637197909576</v>
+        <v>0.08871677901256714</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01424229075620898</v>
+        <v>0.01424281874999389</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.06174933502899793</v>
+        <v>0.06174982244600713</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.07494363831037443</v>
+        <v>-0.07494394940287807</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-3.039342102439946e-07</v>
+        <v>6.931854135139304e-08</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.0508759691963836</v>
+        <v>0.05087775775329684</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.06927529491788365</v>
+        <v>0.06927603773197388</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.006429067150634404</v>
+        <v>0.006429135241361683</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.07753537004291577</v>
+        <v>0.07753575228586973</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07731262813744522</v>
+        <v>-0.07731289096112404</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.02299254502735126</v>
+        <v>-0.02299277011792022</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02578409756723654</v>
+        <v>0.02578455890834186</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.03087745427148669</v>
+        <v>0.03087723123481356</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.06479919915136212</v>
+        <v>0.06479833570563365</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.005900053742934341</v>
+        <v>0.00590046187006843</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.01320659826457216</v>
+        <v>0.01320195520715006</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.003874579848598403</v>
+        <v>0.003875050937933944</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.05184743676589343</v>
+        <v>0.05184547173054499</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.07176882588939004</v>
+        <v>-0.07176923472006613</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.06060312519003497</v>
+        <v>0.06060347058340576</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.04545346700483877</v>
+        <v>0.04545508091060779</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.1022141893495553</v>
+        <v>-0.1022088852056016</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.07188787930972185</v>
+        <v>-0.07188730049341696</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.03499448651712167</v>
+        <v>0.0349945072887099</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.03322959667301562</v>
+        <v>0.03322960983367329</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.002387821336610196</v>
+        <v>0.002388221894377152</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01970140054116554</v>
+        <v>-0.01970090886547793</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.08023675010626041</v>
+        <v>-0.08023820697870854</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.001678127358500481</v>
+        <v>0.001679059826483309</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.004964080570456053</v>
+        <v>-0.004964329864409867</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.001207682417450506</v>
+        <v>-0.001207555084762113</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.04064502035750195</v>
+        <v>-0.04064371429708857</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-2.596641598295868e-06</v>
+        <v>-2.007773570733562e-07</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-2.94784640508805e-06</v>
+        <v>7.842078897368765e-08</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.075370592868514</v>
+        <v>0.07537013505072143</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.07353568529922516</v>
+        <v>-0.0735353365646193</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.04086573023188433</v>
+        <v>-0.04086767531231938</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-4.42684411461336e-06</v>
+        <v>7.997172546403419e-08</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-3.55182244760055e-06</v>
+        <v>-6.346285563729737e-08</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.005857334278269399</v>
+        <v>-0.005858638182271725</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02788346611837733</v>
+        <v>0.02788307197953155</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.05220506907925537</v>
+        <v>-0.05220490349510654</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.07069706358372807</v>
+        <v>0.07069942721910927</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.06592493465078086</v>
+        <v>-0.06592420522797482</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-1.534620775567319e-06</v>
+        <v>-4.031067590837267e-09</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.02403122988132766</v>
+        <v>0.02402883097998321</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>0.04291606568309714</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.03598380633429477</v>
+        <v>-0.03598268184234155</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-1.607300451844651e-06</v>
+        <v>-3.408791249270848e-08</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-1.022189584309885e-06</v>
+        <v>-2.202660720485028e-08</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.06334761008125833</v>
+        <v>-0.06334872980027151</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.06448330137908753</v>
+        <v>0.06448316907769835</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.008086270508222082</v>
+        <v>-0.008086129205324033</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.0218847761019717</v>
+        <v>-0.0218841504074142</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.01665313498695142</v>
+        <v>-0.01665344565994742</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.01842740733056236</v>
+        <v>0.01842683639361309</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1111210772021507</v>
+        <v>0.1111202628056911</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2217,16 +2217,16 @@
         <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1109167565108489</v>
+        <v>0.1109162764960139</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.007120073627458923</v>
+        <v>-0.007120056089249038</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-4.865122573693981e-07</v>
+        <v>-2.822361158116848e-07</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>4.34157065853924e-08</v>
+        <v>3.74069786257536e-08</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/rs_smae_style_28/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_smae_style_28/single_run/summary.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2014-04-16</t>
+          <t>2015-10-08</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -681,7 +681,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>399006.XSHE</t>
+          <t>000300.XSHG</t>
         </is>
       </c>
       <c r="C6" s="13" t="n"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="C7" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>939180152.5055319</v>
+        <v>268605964.8235048</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>1759.591531872749</v>
+        <v>1022.344504743814</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>8.391801525055319</v>
+        <v>1.686059648235048</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.326069731773875</v>
+        <v>0.1639579292422717</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>9.391801525055319</v>
+        <v>2.686059648235048</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>200.09202611668</v>
+        <v>171.3812064058923</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.7818361929776928</v>
+        <v>0.7921287540151351</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2162589315649581</v>
+        <v>0.1927919290417204</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.214931198872018</v>
+        <v>0.721532167997792</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1502267571381758</v>
+        <v>0.1368699302851213</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.748954234240263</v>
+        <v>1.016334108187025</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2190451178814692</v>
+        <v>0.219043192867592</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02152118989087799</v>
+        <v>0.0195933082180211</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>1.926228372278894</v>
+        <v>0.7294678348001628</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.144866467525181</v>
+        <v>0.08782061545328013</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2615510116966618</v>
+        <v>0.1198613752742905</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4160597546976837</v>
+        <v>0.5943882334545233</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.667795490665334</v>
+        <v>0.8804563357569738</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.6627328301377355</v>
+        <v>0.5760351492896605</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.3426022685653181</v>
+        <v>0.2189491890874296</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.251715054098183</v>
+        <v>0.1716480179593783</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2510611540222899</v>
+        <v>0.1142331129537153</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4829494466795696</v>
+        <v>0.7413303858070915</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.159253484988072</v>
+        <v>0.6960465567697999</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.759737716812444</v>
+        <v>1.022942949123409</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.612679020734864</v>
+        <v>0.8950980356886359</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03181541429700172</v>
+        <v>0.02016990435016063</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2152518262369373</v>
+        <v>0.2152498581023555</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1154,182 +1154,162 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="9" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.7168069999999995</v>
+        <v>0.1704250000000005</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.5611609334001091</v>
+        <v>0.005387378143296285</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.374975937822446</v>
+        <v>1.81381364544273</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.339516108265973</v>
+        <v>0.01214077608292781</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.383711156816112</v>
+        <v>-0.09578999081530203</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.1308828286930862</v>
+        <v>-0.01322122137537279</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.660997218549369</v>
+        <v>-0.6266059608149672</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.769686112326339</v>
+        <v>-0.4719377925083068</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.09579236687182838</v>
+        <v>0.1680348858085077</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1435737569759322</v>
+        <v>-0.04263593904610814</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.6266178027444639</v>
+        <v>1.567859414497307</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.3181425916909801</v>
+        <v>-0.143953668999509</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.54</v>
+        <v>0.4313725490196079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1680352744629301</v>
+        <v>-0.12787355508222</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.2792678864110933</v>
+        <v>0.1345959591669587</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.56785548677845</v>
+        <v>-0.7871564422772928</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>1.895730403393345</v>
+        <v>-0.2797348551494966</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.1278754247891785</v>
+        <v>0.1943087341951799</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.1587934182471676</v>
+        <v>-0.1302513996282184</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.7871616048000952</v>
+        <v>1.05691369316456</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.3244542920284859</v>
+        <v>-0.7432352172997565</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.1943114747835746</v>
+        <v>0.5784061536932104</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1959026646912816</v>
+        <v>0.2300652649994679</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.05691357733408</v>
+        <v>2.05041433163932</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>-0.2355446814311593</v>
+        <v>2.332501542052018</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.5784133126161306</v>
+        <v>0.150431042966519</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.07440432748915952</v>
+        <v>0.2044904967543425</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>2.050421667279229</v>
+        <v>0.774177897903284</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>1.170454277825258</v>
+        <v>1.207539551580495</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.5961538461538461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.150432791230776</v>
+        <v>0.1488718125507378</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.002612842367736312</v>
+        <v>0.2454195255074838</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.7741802220616721</v>
+        <v>2.322325711992101</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.5795317950002394</v>
+        <v>3.071162725746285</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4423076923076923</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>0.1488718261624378</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>0.3170963455558058</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>2.32232285570497</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>3.348671351758238</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <v>0.52</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
@@ -1421,7 +1401,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1433,358 +1413,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.02516400000000019</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01606834380347033</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.06568477812112916</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.0643206887274681</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.01850408393248848</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.08171730235598607</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.02807156066241423</v>
+        <v>0.1312910000000005</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1425766774984325</v>
+        <v>0.07840246231959758</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3384489086945806</v>
+        <v>-0.04062502305352444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.05528577178448124</v>
+        <v>-0.09089006130251842</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1472477822197775</v>
+        <v>-0.005554276369890032</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.211158954206778</v>
+        <v>0.04824053641548565</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.2238449462153744</v>
+        <v>-0.02480481076110252</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2396697121438509</v>
+        <v>0</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.0644671254804251</v>
+        <v>0.05507055313696374</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0</v>
+        <v>-0.043893676587206</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.05320745668457083</v>
+        <v>-0.02490784884093933</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.013285123457908</v>
+        <v>-0.01954483422371422</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1899495355920735</v>
+        <v>0.0008349557933566842</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07840267614467944</v>
+        <v>0.07239952492241675</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04062530915453755</v>
+        <v>-0.05476640455579884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.09089203034328253</v>
+        <v>0.01161001974846698</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.005554498323839696</v>
+        <v>0.01146556547421684</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.04824172922281389</v>
+        <v>-0.03617971468465397</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.02480516215536721</v>
+        <v>0.002710564590771236</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0</v>
+        <v>0.03965130245584647</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.05506996913029427</v>
+        <v>0.04732913671544359</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.0438934305958375</v>
+        <v>0.01926259791454976</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.02490856854233625</v>
+        <v>-0.01320746919405136</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.01954424625207307</v>
+        <v>0.009518167318719462</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.000834563427916768</v>
+        <v>0.05432342897739351</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.07239991672282398</v>
+        <v>0.01445461751785238</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.05476692910127412</v>
+        <v>-0.001112709289546765</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.01160997028932909</v>
+        <v>0.07066658145538152</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.01146630727042752</v>
+        <v>-0.06085242354157194</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.03618051379245357</v>
+        <v>0.0596439625120373</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.002710694721023144</v>
+        <v>-0.02194224558004221</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.03965110937239102</v>
+        <v>-0.002796162689781556</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04733020874132188</v>
+        <v>-0.01044923212973436</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.01926192528897896</v>
+        <v>-0.01883541842194103</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.01320724052764899</v>
+        <v>-0.06265263873588278</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.009518402852725538</v>
+        <v>-0.01087945776351362</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05432304570540514</v>
+        <v>-0.0394589943486704</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.01445430045448126</v>
+        <v>-0.028941170539174</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.001112329057118222</v>
+        <v>-0.000479329494988856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.07066678019057138</v>
+        <v>0.02964363266680436</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.06085280933257509</v>
+        <v>0.1258550436879693</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.0596443835963163</v>
+        <v>0.03017682162764213</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02194199237902994</v>
+        <v>-0.005887621004981303</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>-0.002796759692913486</v>
+        <v>-0.04758385050946712</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.01044919074598849</v>
+        <v>0.0244658177504542</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01883561913517284</v>
+        <v>0.01976955274269687</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.06265389619651396</v>
+        <v>-0.05424283281127196</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.01087906622530654</v>
+        <v>0.01205994686150813</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.03945986307370131</v>
+        <v>0.0237241831942081</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.02894156609769216</v>
+        <v>-0.004799481986115017</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.0004788858029717291</v>
+        <v>0.03679820655246124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.02964333239243455</v>
+        <v>0.07208796227259207</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1258584036275496</v>
+        <v>0.07460686236796188</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.03017667021308457</v>
+        <v>-0.01994196934784287</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.005887555095168695</v>
+        <v>0.02899214664187588</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.04758497492528513</v>
+        <v>-0.03138133631388262</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.02446597695680186</v>
+        <v>0.1684636816181342</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>0.01977002343829826</v>
+        <v>0.1465013109267919</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.05424349959047126</v>
+        <v>-0.02682839502038836</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01206012036611348</v>
+        <v>-0.0253245302635523</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.02372488203139445</v>
+        <v>-0.01774495858405301</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.00479939161866727</v>
+        <v>0.06438941746515314</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.03679821322015298</v>
+        <v>0.0557424841959151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.07208830947856337</v>
+        <v>0.05481921782431542</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>0.07460795548841581</v>
+        <v>-0.04586721575154584</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.0199420844693714</v>
+        <v>0</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.02899260666102865</v>
+        <v>0.08194584530960958</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.03138155508663609</v>
+        <v>0.07041164551562273</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1684654407014481</v>
+        <v>0.05080228690500799</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1465029094629715</v>
+        <v>-0.07041774820208357</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02682901602041099</v>
+        <v>-0.001118049036844204</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02532459873965198</v>
+        <v>0.005738848639165184</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01774506922624264</v>
+        <v>0.01172108414220641</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06439019314322136</v>
+        <v>0.02591574449086287</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.05574278321681403</v>
+        <v>-0.03097123043134298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.05481947200975701</v>
+        <v>-0.02216340646997983</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.04586779340367919</v>
+        <v>0</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.08194691728122683</v>
+        <v>-0.01766090159130074</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.07041277680906455</v>
+        <v>0.03401365390746469</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.05080245960355123</v>
+        <v>0.1686070746949426</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.07041811885523597</v>
+        <v>-0.01019629808418676</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>-0.001118365683082656</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>0.005739031290521668</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01172150869593258</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.02591555345466845</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.03097125679225432</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>-0.02216371181498666</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>-0.01766108471506012</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>0.03401386880313928</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>0.1686075411205763</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>-0.01019639352731505</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
@@ -1799,7 +1738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1877,7 +1816,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1889,358 +1828,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.03905356378214742</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.04608640596643732</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-1.58795698801395e-06</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1092912413762805</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.07569550578311446</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-8.148963070997439e-07</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.01121154094352272</v>
+        <v>0.02773628455879318</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.0970926891899393</v>
+        <v>0.07112691442598273</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.4161015101182068</v>
+        <v>-0.08670557429562831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1790524833782375</v>
+        <v>0.1307063581449874</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-1.253506061837939e-06</v>
+        <v>0.0115045350047871</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-1.459855040630842e-06</v>
+        <v>-0.06496716590610596</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-1.070260722824123e-06</v>
+        <v>-0.006214291746799883</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-1.340633265956015e-06</v>
+        <v>-0.006826347371625796</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1348003736502654</v>
+        <v>0.06066391754511824</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.08807385286485769</v>
+        <v>-0.0585201482349551</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2884419911943652</v>
+        <v>-0.06257630714783513</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.08195356332796333</v>
+        <v>0.00227708778098612</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-5.45410182128947e-07</v>
+        <v>-0.02447714025440995</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-2.359826782871721e-07</v>
+        <v>0.01131960747517291</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.05681384446958226</v>
+        <v>0.009994252861671882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.1962470755689463</v>
+        <v>-0.0119681508091396</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.03967796588316852</v>
+        <v>-0.007533860061868403</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1333322965274735</v>
+        <v>-0.03702569000561295</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.01529745413106576</v>
+        <v>0.007355640957084741</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.01869687499886785</v>
+        <v>0.02356325156082772</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.02046001585670232</v>
+        <v>-0.002267321880007556</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.003548119421279416</v>
+        <v>-0.000190302549245347</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.05795488892081924</v>
+        <v>-0.03521575266837196</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.001675178010364653</v>
+        <v>0.005822728329320848</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.004987673930761161</v>
+        <v>0.009560990607996978</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.05998618881534856</v>
+        <v>0.01465389151903063</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.04830806903892282</v>
+        <v>-0.008381567228176956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.04906726662806737</v>
+        <v>0.00929414060118372</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.01047569205622267</v>
+        <v>-0.005072446729310065</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.02657123175086529</v>
+        <v>0.09397260707334487</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03217930950354098</v>
+        <v>0.01272524674356124</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.08871677901256714</v>
+        <v>-0.01580529313474033</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01424281874999389</v>
+        <v>0.06814850570031328</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.06174982244600713</v>
+        <v>-0.02363678831872695</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.07494394940287807</v>
+        <v>-0.01507120388425476</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>6.931854135139304e-08</v>
+        <v>-0.0427846670934483</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05087775775329684</v>
+        <v>0.03897616309303187</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.06927603773197388</v>
+        <v>-0.0360895988108878</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.006429135241361683</v>
+        <v>0.05233287090302552</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.07753575228586973</v>
+        <v>-0.03361912796169264</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07731289096112404</v>
+        <v>-0.01773103459160896</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.02299277011792022</v>
+        <v>-0.02396167854935383</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02578455890834186</v>
+        <v>-0.01600171390673943</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.03087723123481356</v>
+        <v>0.02216792955373914</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.06479833570563365</v>
+        <v>-0.02932395502157992</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.00590046187006843</v>
+        <v>0.01717173622247326</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.01320195520715006</v>
+        <v>-0.04670171417448721</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.003875050937933944</v>
+        <v>0.008648020567123771</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.05184547173054499</v>
+        <v>0.004167007569851222</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.07176923472006613</v>
+        <v>0.01030221743165494</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.06060347058340576</v>
+        <v>-0.03096999417233348</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.04545508091060779</v>
+        <v>0.09734572043155931</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.1022088852056016</v>
+        <v>0.09384743653170657</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.07188730049341696</v>
+        <v>0.04226268574395742</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.0349945072887099</v>
+        <v>-0.03189968965575085</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.03322960983367329</v>
+        <v>-0.0199148717897335</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.002388221894377152</v>
+        <v>0.08535480420941699</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01970090886547793</v>
+        <v>0.01609043387999698</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.08023820697870854</v>
+        <v>-0.05205463533090648</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.001679059826483309</v>
+        <v>0.0217571376066219</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.004964329864409867</v>
+        <v>-0.04174250575612348</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.001207555084762113</v>
+        <v>0.007494456395994664</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.04064371429708857</v>
+        <v>0.004862423452593578</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-2.007773570733562e-07</v>
+        <v>0.02798809597447294</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>7.842078897368765e-08</v>
+        <v>-0.04238374425788793</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.07537013505072143</v>
+        <v>0.050217320784679</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.0735353365646193</v>
+        <v>0.06588094325803562</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.04086767531231938</v>
+        <v>0.02929858351215908</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>7.997172546403419e-08</v>
+        <v>0.07316405479824639</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-6.346285563729737e-08</v>
+        <v>0.0100304451943003</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.005858638182271725</v>
+        <v>-0.002644157730479546</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02788307197953155</v>
+        <v>-0.008455780157953674</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.05220490349510654</v>
+        <v>0.00312679610566291</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.07069942721910927</v>
+        <v>0.04215764953857692</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.06592420522797482</v>
+        <v>-0.05236198337042608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-4.031067590837267e-09</v>
+        <v>0.05636641495589267</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.02402883097998321</v>
+        <v>-0.005404061630617019</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.04291606568309714</v>
+        <v>0.0755615610018201</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.03598268184234155</v>
+        <v>0.02609196813072456</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-3.408791249270848e-08</v>
+        <v>0.01275148433455886</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-2.202660720485028e-08</v>
+        <v>0.06707504766500905</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.06334872980027151</v>
+        <v>-0.00611762340184252</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.06448316907769835</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.008086129205324033</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.0218841504074142</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.01665344565994742</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.01842683639361309</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>0.1111202628056911</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.004280811429914211</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0.07009750317718355</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.1109162764960139</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>-0.007120056089249038</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>-2.822361158116848e-07</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>3.74069786257536e-08</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>

--- a/backtest/bt_report/rs_smae_style_28/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_smae_style_28/single_run/summary.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2015-10-08</t>
+          <t>2015-11-02</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>268605964.8235048</v>
+        <v>225609397.4128311</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>1022.344504743814</v>
+        <v>2165.941831082106</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>1.686059648235048</v>
+        <v>1.256093974128311</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1639579292422717</v>
+        <v>0.1346582398871741</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>2.686059648235048</v>
+        <v>2.256093974128311</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>171.3812064058923</v>
+        <v>196.2326502676586</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.7921287540151351</v>
+        <v>0.8220724460801375</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1927919290417204</v>
+        <v>0.1833501296424759</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.721532167997792</v>
+        <v>0.6195029109187365</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1368699302851213</v>
+        <v>0.1309589211044831</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.016334108187025</v>
+        <v>0.8673402168625008</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.219043192867592</v>
+        <v>0.21904242361257</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.0195933082180211</v>
+        <v>0.01870294946459444</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.7294678348001628</v>
+        <v>0.5977548538341182</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.08782061545328013</v>
+        <v>0.07547078612953206</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1198613752742905</v>
+        <v>0.1005866249311764</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.5943882334545233</v>
+        <v>0.5750452926908646</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>0.8804563357569738</v>
+        <v>0.7972586799489595</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.5760351492896605</v>
+        <v>0.5211739777421066</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.2189491890874296</v>
+        <v>0.2189509413838897</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.1716480179593783</v>
+        <v>0.1659383381895837</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1142331129537153</v>
+        <v>0.09737991540476713</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.7413303858070915</v>
+        <v>0.7394347384773707</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.6960465567697999</v>
+        <v>0.5829790812492703</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.022942949123409</v>
+        <v>0.8499766501852035</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>0.8950980356886359</v>
+        <v>0.7812770745386062</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.02016990435016063</v>
+        <v>0.01989293881894389</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2152498581023555</v>
+        <v>0.2152492725389733</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2015</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.1704250000000005</v>
+        <v>-0.0169320000000001</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.005387378143296285</v>
+        <v>-0.07118481389330811</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>1.81381364544273</v>
+        <v>-0.3563451568058144</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0.01214077608292781</v>
+        <v>-3.095867571727394</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2016</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>-0.09578999081530203</v>
+        <v>-0.09579093206166821</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.01322122137537279</v>
+        <v>-0.01322217946726545</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>-0.6266059608149672</v>
+        <v>-0.626615124816678</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>-0.4719377925083068</v>
+        <v>-0.4719461951142029</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2017</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.1680348858085077</v>
+        <v>0.1680314636421015</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>-0.04263593904610814</v>
+        <v>-0.04263888175855549</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>1.567859414497307</v>
+        <v>1.567856620398009</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.143953668999509</v>
+        <v>-0.1439609934140906</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.4313725490196079</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="5">
@@ -1217,16 +1217,16 @@
         <v>2018</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>-0.12787355508222</v>
+        <v>-0.1278723482126865</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.1345959591669587</v>
+        <v>0.1345975391303056</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>-0.7871564422772928</v>
+        <v>-0.7871453341727797</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>-0.2797348551494966</v>
+        <v>-0.2797251004932024</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.5294117647058824</v>
@@ -1237,16 +1237,16 @@
         <v>2019</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.1943087341951799</v>
+        <v>0.1943109695559457</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>-0.1302513996282184</v>
+        <v>-0.1302494303565413</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>1.05691369316456</v>
+        <v>1.056913958325265</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.7432352172997565</v>
+        <v>-0.7432425609265843</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.4615384615384616</v>
@@ -1257,19 +1257,19 @@
         <v>2020</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.5784061536932104</v>
+        <v>0.5784103676100036</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>0.2300652649994679</v>
+        <v>0.2300685149860057</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>2.05041433163932</v>
+        <v>2.05042548536863</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>2.332501542052018</v>
+        <v>2.332527920038206</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.5</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="8">
@@ -1277,16 +1277,16 @@
         <v>2021</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.150431042966519</v>
+        <v>0.1504337525571704</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>0.2044904967543425</v>
+        <v>0.2044934992477492</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.774177897903284</v>
+        <v>0.774186052218598</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>1.207539551580495</v>
+        <v>1.207551481824407</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.5961538461538461</v>
@@ -1297,16 +1297,16 @@
         <v>2022</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.1488718125507378</v>
+        <v>0.1488708587502781</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>0.2454195255074838</v>
+        <v>0.2454184312249821</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>2.322325711992101</v>
+        <v>2.322336813866652</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>3.071162725746285</v>
+        <v>3.071174737461275</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.68</v>
@@ -1431,13 +1431,13 @@
         <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.1312910000000005</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.07840246231959758</v>
+        <v>0.01524400000000004</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.04062502305352444</v>
+        <v>-0.03169287383131592</v>
       </c>
     </row>
     <row r="3">
@@ -1445,40 +1445,40 @@
         <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.09089006130251842</v>
+        <v>-0.09089096583349277</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.005554276369890032</v>
+        <v>-0.0055543371719875</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.04824053641548565</v>
+        <v>0.04824067906457596</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.02480481076110252</v>
+        <v>-0.0248050183228028</v>
       </c>
       <c r="F3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.05507055313696374</v>
+        <v>0.05506886497445818</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>-0.043893676587206</v>
+        <v>-0.04389242896547663</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>-0.02490784884093933</v>
+        <v>-0.02490848086418096</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.01954483422371422</v>
+        <v>-0.0195435110284039</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.0008349557933566842</v>
+        <v>0.0008343015492215944</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07239952492241675</v>
+        <v>0.07239942844957259</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.05476640455579884</v>
+        <v>-0.05476599876010335</v>
       </c>
     </row>
     <row r="4">
@@ -1486,40 +1486,40 @@
         <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.01161001974846698</v>
+        <v>0.01160874295054848</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.01146556547421684</v>
+        <v>0.01146662989397518</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.03617971468465397</v>
+        <v>-0.03618026473042646</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.002710564590771236</v>
+        <v>0.002710404256338173</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.03965130245584647</v>
+        <v>0.03964969203570479</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.04732913671544359</v>
+        <v>0.04732943043169024</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.01926259791454976</v>
+        <v>0.01926231477940665</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.01320746919405136</v>
+        <v>-0.0132070713800998</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.009518167318719462</v>
+        <v>0.009518477043672702</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.05432342897739351</v>
+        <v>0.05432195567684084</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.01445461751785238</v>
+        <v>0.01445430837939976</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.001112709289546765</v>
+        <v>-0.001112160843856569</v>
       </c>
     </row>
     <row r="5">
@@ -1527,40 +1527,40 @@
         <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.07066658145538152</v>
+        <v>0.07066713411451087</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.06085242354157194</v>
+        <v>-0.06085371700912101</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.0596439625120373</v>
+        <v>0.0596444779910843</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>-0.02194224558004221</v>
+        <v>-0.02194161557833907</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.002796162689781556</v>
+        <v>-0.002796721938740143</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>-0.01044923212973436</v>
+        <v>-0.01044899926317611</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.01883541842194103</v>
+        <v>-0.01883615049813614</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.06265263873588278</v>
+        <v>-0.06265166050956006</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.01087945776351362</v>
+        <v>-0.01087848723646523</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.0394589943486704</v>
+        <v>-0.03945921569596478</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.028941170539174</v>
+        <v>-0.02894104708708356</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.000479329494988856</v>
+        <v>-0.0004790651826688253</v>
       </c>
     </row>
     <row r="6">
@@ -1568,40 +1568,40 @@
         <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02964363266680436</v>
+        <v>0.02964338921056608</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>0.1258550436879693</v>
+        <v>0.1258576547800752</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.03017682162764213</v>
+        <v>0.03017678704292059</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.005887621004981303</v>
+        <v>-0.005887972242285211</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>-0.04758385050946712</v>
+        <v>-0.0475846286942202</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.0244658177504542</v>
+        <v>0.02446580852225466</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.01976955274269687</v>
+        <v>0.01976954597544478</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.05424283281127196</v>
+        <v>-0.05424252679918673</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01205994686150813</v>
+        <v>0.01205907851202537</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.0237241831942081</v>
+        <v>0.02372529063236839</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.004799481986115017</v>
+        <v>-0.004799197017056001</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.03679820655246124</v>
+        <v>0.03679838782354294</v>
       </c>
     </row>
     <row r="7">
@@ -1609,40 +1609,40 @@
         <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.07208796227259207</v>
+        <v>0.07208780844148288</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.07460686236796188</v>
+        <v>0.07460816074465848</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.01994196934784287</v>
+        <v>-0.01994213041925375</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.02899214664187588</v>
+        <v>0.0289920470673406</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.03138133631388262</v>
+        <v>-0.03138102287378786</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.1684636816181342</v>
+        <v>0.1684648953066934</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>0.1465013109267919</v>
+        <v>0.1465024633313121</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.02682839502038836</v>
+        <v>-0.02682911420743361</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.0253245302635523</v>
+        <v>-0.02532440971581007</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01774495858405301</v>
+        <v>-0.01774492877327061</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.06438941746515314</v>
+        <v>0.06438920151570637</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.0557424841959151</v>
+        <v>0.05574278668783572</v>
       </c>
     </row>
     <row r="8">
@@ -1650,40 +1650,40 @@
         <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.05481921782431542</v>
+        <v>0.05481955096885494</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.04586721575154584</v>
+        <v>-0.04586737638007321</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.08194584530960958</v>
+        <v>0.08194752708601438</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.07041164551562273</v>
+        <v>0.07041240413507044</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.05080228690500799</v>
+        <v>0.05080234196298505</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.07041774820208357</v>
+        <v>-0.07041790031042383</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.001118049036844204</v>
+        <v>-0.001118618881298827</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.005738848639165184</v>
+        <v>0.005738955562629933</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>0.01172108414220641</v>
+        <v>0.01172177306798927</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.02591574449086287</v>
+        <v>0.02591528161751921</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.03097123043134298</v>
+        <v>-0.03097094909874698</v>
       </c>
     </row>
     <row r="9">
@@ -1691,7 +1691,7 @@
         <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.02216340646997983</v>
+        <v>-0.02216321943384825</v>
       </c>
       <c r="C9" s="15" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.01766090159130074</v>
+        <v>-0.01766094199328627</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.03401365390746469</v>
+        <v>0.03401344315604016</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.1686070746949426</v>
+        <v>0.168606281655783</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.01019629808418676</v>
+        <v>-0.01019639500117364</v>
       </c>
       <c r="I9" s="15" t="n">
         <v/>
@@ -1846,13 +1846,13 @@
         <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02773628455879318</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.07112691442598273</v>
+        <v>0.005148986477850004</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.08670557429562831</v>
+        <v>-0.07594277206470679</v>
       </c>
     </row>
     <row r="3">
@@ -1860,40 +1860,40 @@
         <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.1307063581449874</v>
+        <v>0.1307053279504518</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.0115045350047871</v>
+        <v>0.01150442107048932</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.06496716590610596</v>
+        <v>-0.06496701952695294</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.006214291746799883</v>
+        <v>-0.006214489014855107</v>
       </c>
       <c r="F3" s="15" t="n">
         <v>-0.006826347371625796</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.06066391754511824</v>
+        <v>0.06066222119733178</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>-0.0585201482349551</v>
+        <v>-0.05851893802134023</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>-0.06257630714783513</v>
+        <v>-0.06257692095030498</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.00227708778098612</v>
+        <v>0.002278439279030708</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.02447714025440995</v>
+        <v>-0.02447775791988238</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.01131960747517291</v>
+        <v>0.01131953065489744</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.009994252861671882</v>
+        <v>0.009994681233741476</v>
       </c>
     </row>
     <row r="4">
@@ -1901,40 +1901,40 @@
         <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.0119681508091396</v>
+        <v>-0.01196940763795162</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.007533860061868403</v>
+        <v>-0.007532843478438744</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.03702569000561295</v>
+        <v>-0.03702624767249552</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.007355640957084741</v>
+        <v>0.00735546019062161</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.02356325156082772</v>
+        <v>0.02356165448411174</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.002267321880007556</v>
+        <v>-0.002267043340191566</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.000190302549245347</v>
+        <v>-0.00019059943355626</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03521575266837196</v>
+        <v>-0.03521537021855026</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.005822728329320848</v>
+        <v>0.00582303913683635</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.009560990607996978</v>
+        <v>0.009559575034763901</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.01465389151903063</v>
+        <v>0.01465353692951776</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.008381567228176956</v>
+        <v>-0.008381015056996732</v>
       </c>
     </row>
     <row r="5">
@@ -1942,40 +1942,40 @@
         <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.00929414060118372</v>
+        <v>0.009294693471471271</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.005072446729310065</v>
+        <v>-0.005073780023735375</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.09397260707334487</v>
+        <v>0.093973122303177</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01272524674356124</v>
+        <v>0.01272586513877383</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.01580529313474033</v>
+        <v>-0.01580584274293217</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.06814850570031328</v>
+        <v>0.06814876454942276</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.02363678831872695</v>
+        <v>-0.02363750357550343</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.01507120388425476</v>
+        <v>-0.01507020364040812</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.0427846670934483</v>
+        <v>-0.04278375593142592</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.03897616309303187</v>
+        <v>0.03897592760709356</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.0360895988108878</v>
+        <v>-0.03608946619386111</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.05233287090302552</v>
+        <v>0.05233315877577205</v>
       </c>
     </row>
     <row r="6">
@@ -1983,40 +1983,40 @@
         <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>-0.03361912796169264</v>
+        <v>-0.03361934734075211</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.01773103459160896</v>
+        <v>-0.01772864756873516</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.02396167854935383</v>
+        <v>-0.02396163000643781</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.01600171390673943</v>
+        <v>-0.01600201233062959</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.02216792955373914</v>
+        <v>0.0221671474109435</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.02932395502157992</v>
+        <v>-0.02932396597672171</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.01717173622247326</v>
+        <v>0.01717173538427796</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.04670171417448721</v>
+        <v>-0.04670139956975639</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.008648020567123771</v>
+        <v>0.008647149251510999</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.004167007569851222</v>
+        <v>0.004168105429768643</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.01030221743165494</v>
+        <v>0.0103025381777837</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.03096999417233348</v>
+        <v>-0.03096978586228305</v>
       </c>
     </row>
     <row r="7">
@@ -2024,40 +2024,40 @@
         <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.09734572043155931</v>
+        <v>0.0973455993442025</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.09384743653170657</v>
+        <v>0.09384870570951431</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.04226268574395742</v>
+        <v>0.04226247760865975</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.03189968965575085</v>
+        <v>-0.03189979379424956</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.0199148717897335</v>
+        <v>-0.01991457400133212</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.08535480420941699</v>
+        <v>0.08535593332217961</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>0.01609043387999698</v>
+        <v>0.01609143235909616</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.05205463533090648</v>
+        <v>-0.05205531893526349</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.0217571376066219</v>
+        <v>0.02175727999877064</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.04174250575612348</v>
+        <v>-0.04174248549320847</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.007494456395994664</v>
+        <v>0.007494265162652614</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.004862423452593578</v>
+        <v>0.004862748095642688</v>
       </c>
     </row>
     <row r="8">
@@ -2065,40 +2065,40 @@
         <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.02798809597447294</v>
+        <v>0.02798842334558116</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.04238374425788793</v>
+        <v>-0.04238388771705071</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.050217320784679</v>
+        <v>0.05021732078467922</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.06588094325803562</v>
+        <v>0.06588260744374064</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02929858351215908</v>
+        <v>0.02929933843861465</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.07316405479824639</v>
+        <v>0.0731641308641835</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.0100304451943003</v>
+        <v>0.01003032993060682</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.002644157730479546</v>
+        <v>-0.00264472667815896</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.008455780157953674</v>
+        <v>-0.00845567009644943</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>0.00312679610566291</v>
+        <v>0.003127509084280167</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.04215764953857692</v>
+        <v>0.04215718186593764</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.05236198337042608</v>
+        <v>-0.05236172747947954</v>
       </c>
     </row>
     <row r="9">
@@ -2106,25 +2106,25 @@
         <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.05636641495589267</v>
+        <v>0.05636661597426196</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.005404061630617019</v>
+        <v>-0.005404061630617241</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.0755615610018201</v>
+        <v>0.07556156100181988</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.02609196813072456</v>
+        <v>0.02609192729753329</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.01275148433455886</v>
+        <v>0.0127512715978797</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.06707504766500905</v>
+        <v>0.06707427769404717</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.00611762340184252</v>
+        <v>-0.006117720318829512</v>
       </c>
       <c r="I9" s="15" t="n">
         <v/>
